--- a/Test_Data.xlsx
+++ b/Test_Data.xlsx
@@ -182,13 +182,13 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -287,82 +287,6 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -455,6 +379,82 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
         <vertical style="thin">
           <color indexed="64"/>
         </vertical>
@@ -611,11 +611,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="107082816"/>
-        <c:axId val="107068736"/>
+        <c:axId val="43501824"/>
+        <c:axId val="43502400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="107082816"/>
+        <c:axId val="43501824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -625,12 +625,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107068736"/>
+        <c:crossAx val="43502400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="107068736"/>
+        <c:axId val="43502400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -641,7 +641,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107082816"/>
+        <c:crossAx val="43501824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -777,11 +777,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="107061824"/>
-        <c:axId val="107061248"/>
+        <c:axId val="43504128"/>
+        <c:axId val="43504704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="107061824"/>
+        <c:axId val="43504128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -791,12 +791,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107061248"/>
+        <c:crossAx val="43504704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="107061248"/>
+        <c:axId val="43504704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -807,7 +807,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107061824"/>
+        <c:crossAx val="43504128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -890,18 +890,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:K19" headerRowDxfId="7" totalsRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:K19" headerRowDxfId="12" totalsRowDxfId="11">
   <autoFilter ref="B3:K19"/>
   <sortState ref="B4:K19">
     <sortCondition ref="E3:E19"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="8" name="Trial" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="1" name="Robot" totalsRowLabel="Total" dataDxfId="12"/>
-    <tableColumn id="2" name="Direction" dataDxfId="11"/>
-    <tableColumn id="3" name="Side" dataDxfId="10"/>
-    <tableColumn id="4" name="Starting value" dataDxfId="9"/>
-    <tableColumn id="5" name="Ending Value" dataDxfId="8"/>
+    <tableColumn id="8" name="Trial" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="1" name="Robot" totalsRowLabel="Total" dataDxfId="8"/>
+    <tableColumn id="2" name="Direction" dataDxfId="7"/>
+    <tableColumn id="3" name="Side" dataDxfId="6"/>
+    <tableColumn id="4" name="Starting value" dataDxfId="5"/>
+    <tableColumn id="5" name="Ending Value" dataDxfId="4"/>
     <tableColumn id="6" name="Change in value" dataDxfId="3">
       <calculatedColumnFormula>Table1[[#This Row],[Ending Value]]-Table1[[#This Row],[Starting value]]</calculatedColumnFormula>
     </tableColumn>
@@ -1223,624 +1223,624 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>0</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>1427</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <f>Table1[[#This Row],[Ending Value]]-Table1[[#This Row],[Starting value]]</f>
         <v>1427</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <f>ABS(Table1[[#This Row],[Change in value]])</f>
         <v>1427</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>104</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <f>ABS(Table1[[#This Row],[Distance(in)]])</f>
         <v>104</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>1365</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <f>Table1[[#This Row],[Ending Value]]-Table1[[#This Row],[Starting value]]</f>
         <v>1365</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <f>ABS(Table1[[#This Row],[Change in value]])</f>
         <v>1365</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>105</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1">
         <f>ABS(Table1[[#This Row],[Distance(in)]])</f>
         <v>105</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>0</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>706</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <f>Table1[[#This Row],[Ending Value]]-Table1[[#This Row],[Starting value]]</f>
         <v>706</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <f>ABS(Table1[[#This Row],[Change in value]])</f>
         <v>706</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <f>58+(3/8)</f>
         <v>58.375</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="1">
         <f>ABS(Table1[[#This Row],[Distance(in)]])</f>
         <v>58.375</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>4</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>0</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>346</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <f>Table1[[#This Row],[Ending Value]]-Table1[[#This Row],[Starting value]]</f>
         <v>346</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <f>ABS(Table1[[#This Row],[Change in value]])</f>
         <v>346</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <v>24</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="1">
         <f>ABS(Table1[[#This Row],[Distance(in)]])</f>
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>5</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>-966</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <f>Table1[[#This Row],[Ending Value]]-Table1[[#This Row],[Starting value]]</f>
         <v>-966</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <f>ABS(Table1[[#This Row],[Change in value]])</f>
         <v>966</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <f>(73+(5/8))*-1</f>
         <v>-73.625</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="1">
         <f>ABS(Table1[[#This Row],[Distance(in)]])</f>
         <v>73.625</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>6</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>0</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>-484</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <f>Table1[[#This Row],[Ending Value]]-Table1[[#This Row],[Starting value]]</f>
         <v>-484</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="1">
         <f>ABS(Table1[[#This Row],[Change in value]])</f>
         <v>484</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="1">
         <f>-1*(34.123)</f>
         <v>-34.122999999999998</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="1">
         <f>ABS(Table1[[#This Row],[Distance(in)]])</f>
         <v>34.122999999999998</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>7</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>0</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>-1056</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <f>Table1[[#This Row],[Ending Value]]-Table1[[#This Row],[Starting value]]</f>
         <v>-1056</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="1">
         <f>ABS(Table1[[#This Row],[Change in value]])</f>
         <v>1056</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="1">
         <f>-1*(83+(7/32))</f>
         <v>-83.21875</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="1">
         <f>ABS(Table1[[#This Row],[Distance(in)]])</f>
         <v>83.21875</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>8</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>0</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>1616</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <f>Table1[[#This Row],[Ending Value]]-Table1[[#This Row],[Starting value]]</f>
         <v>1616</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="1">
         <f>ABS(Table1[[#This Row],[Change in value]])</f>
         <v>1616</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="1">
         <f>84+(15/16)</f>
         <v>84.9375</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="1">
         <f>ABS(Table1[[#This Row],[Distance(in)]])</f>
         <v>84.9375</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>1</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>0</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <v>1048</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="1">
         <f>Table1[[#This Row],[Ending Value]]-Table1[[#This Row],[Starting value]]</f>
         <v>1048</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="1">
         <f>ABS(Table1[[#This Row],[Change in value]])</f>
         <v>1048</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="1">
         <v>104</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="1">
         <f>ABS(Table1[[#This Row],[Distance(in)]])</f>
         <v>104</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>2</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>0</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <v>1045</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
         <f>Table1[[#This Row],[Ending Value]]-Table1[[#This Row],[Starting value]]</f>
         <v>1045</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="1">
         <f>ABS(Table1[[#This Row],[Change in value]])</f>
         <v>1045</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="1">
         <v>105</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="1">
         <f>ABS(Table1[[#This Row],[Distance(in)]])</f>
         <v>105</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>3</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>0</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <v>606</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="1">
         <f>Table1[[#This Row],[Ending Value]]-Table1[[#This Row],[Starting value]]</f>
         <v>606</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="1">
         <f>ABS(Table1[[#This Row],[Change in value]])</f>
         <v>606</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="1">
         <f>58+(3/8)</f>
         <v>58.375</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="1">
         <f>ABS(Table1[[#This Row],[Distance(in)]])</f>
         <v>58.375</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>4</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>0</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="1">
         <v>243</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="1">
         <f>Table1[[#This Row],[Ending Value]]-Table1[[#This Row],[Starting value]]</f>
         <v>243</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="1">
         <f>ABS(Table1[[#This Row],[Change in value]])</f>
         <v>243</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="1">
         <v>24</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="1">
         <f>ABS(Table1[[#This Row],[Distance(in)]])</f>
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>5</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>0</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="1">
         <v>-728</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="1">
         <f>Table1[[#This Row],[Ending Value]]-Table1[[#This Row],[Starting value]]</f>
         <v>-728</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="1">
         <f>ABS(Table1[[#This Row],[Change in value]])</f>
         <v>728</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="1">
         <f>(73+(5/8))*-1</f>
         <v>-73.625</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="1">
         <f>ABS(Table1[[#This Row],[Distance(in)]])</f>
         <v>73.625</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>6</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <v>0</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="1">
         <v>-368</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="1">
         <f>Table1[[#This Row],[Ending Value]]-Table1[[#This Row],[Starting value]]</f>
         <v>-368</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="1">
         <f>ABS(Table1[[#This Row],[Change in value]])</f>
         <v>368</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="1">
         <f>-1*(34.123)</f>
         <v>-34.122999999999998</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="1">
         <f>ABS(Table1[[#This Row],[Distance(in)]])</f>
         <v>34.122999999999998</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>7</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>0</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="1">
         <v>-808</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="1">
         <f>Table1[[#This Row],[Ending Value]]-Table1[[#This Row],[Starting value]]</f>
         <v>-808</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="1">
         <f>ABS(Table1[[#This Row],[Change in value]])</f>
         <v>808</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="1">
         <f>-1*(83+(7/32))</f>
         <v>-83.21875</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="1">
         <f>ABS(Table1[[#This Row],[Distance(in)]])</f>
         <v>83.21875</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>8</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="1">
         <v>0</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="1">
         <v>1206</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="1">
         <f>Table1[[#This Row],[Ending Value]]-Table1[[#This Row],[Starting value]]</f>
         <v>1206</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="1">
         <f>ABS(Table1[[#This Row],[Change in value]])</f>
         <v>1206</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="1">
         <f>84+(15/16)</f>
         <v>84.9375</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="1">
         <f>ABS(Table1[[#This Row],[Distance(in)]])</f>
         <v>84.9375</v>
       </c>
     </row>
     <row r="20" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="2:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="6" t="s">
